--- a/downloaded_files/SEES280_Lecture-35614.xlsx
+++ b/downloaded_files/SEES280_Lecture-35614.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Reda Mohamed abdel rahman</x:t>
   </x:si>
   <x:si>
+    <x:t>1230010</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عاطف مرعى عبد النعيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200786</x:t>
   </x:si>
   <x:si>
@@ -127,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hazem Abdel Salam Mohamed Nasef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمود احمد شكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mahmoud Ahmed shokry</x:t>
   </x:si>
   <x:si>
     <x:t>1210113</x:t>
@@ -269,7 +287,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -569,7 +587,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -692,7 +710,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4633590278</x:v>
+        <x:v>45920.5473714931</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -724,7 +742,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4210482639</x:v>
+        <x:v>45907.4633590278</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -752,9 +770,11 @@
       <x:c r="C5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.418115162</x:v>
+        <x:v>45907.4210482639</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -777,16 +797,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
+      <x:c r="D6" s="2" t="s"/>
       <x:c r="E6" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.418115162</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -818,7 +836,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.414672338</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -850,7 +868,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4171753125</x:v>
+        <x:v>45907.414672338</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -882,7 +900,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6675802083</x:v>
+        <x:v>45907.4171753125</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -914,7 +932,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4295119213</x:v>
+        <x:v>45907.6675802083</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -946,7 +964,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4295119213</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -978,7 +996,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1010,7 +1028,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.9877303241</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1042,7 +1060,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45911.9939570602</x:v>
+        <x:v>45920.5497586806</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1074,7 +1092,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6679454514</x:v>
+        <x:v>45915.9877303241</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1091,6 +1109,70 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45911.9939570602</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45907.6679454514</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SEES280_Lecture-35614.xlsx
+++ b/downloaded_files/SEES280_Lecture-35614.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Esmat Gad ElKarim Ahmed Farag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1230312</x:t>
@@ -287,7 +296,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -587,7 +596,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -596,7 +605,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="30.910625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.620625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -774,7 +783,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4210482639</x:v>
+        <x:v>45925.3110492245</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -802,9 +811,11 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.418115162</x:v>
+        <x:v>45907.4210482639</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -827,16 +838,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.4149797454</x:v>
+        <x:v>45907.418115162</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -868,7 +877,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.414672338</x:v>
+        <x:v>45907.4149797454</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -900,7 +909,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4171753125</x:v>
+        <x:v>45907.414672338</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6675802083</x:v>
+        <x:v>45907.4171753125</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4295119213</x:v>
+        <x:v>45907.6675802083</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4295119213</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45920.5497586806</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9877303241</x:v>
+        <x:v>45920.5497586806</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45911.9939570602</x:v>
+        <x:v>45915.9877303241</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6679454514</x:v>
+        <x:v>45911.9939570602</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1173,6 +1182,38 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45907.6679454514</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SEES280_Lecture-35614.xlsx
+++ b/downloaded_files/SEES280_Lecture-35614.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,6 +118,15 @@
   </x:si>
   <x:si>
     <x:t>Aly Eldeen Mohamed Hamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمد عبد المنجى مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali mohamed abdelmongy mostafa</x:t>
   </x:si>
   <x:si>
     <x:t>1220308</x:t>
@@ -296,7 +305,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -596,7 +605,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1005,7 +1014,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4295119213</x:v>
+        <x:v>45925.9122760069</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1037,7 +1046,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4295119213</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1069,7 +1078,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45920.5497586806</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9877303241</x:v>
+        <x:v>45920.5497586806</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45911.9939570602</x:v>
+        <x:v>45915.9877303241</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6679454514</x:v>
+        <x:v>45911.9939570602</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1214,6 +1223,38 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45907.6679454514</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/SEES280_Lecture-35614.xlsx
+++ b/downloaded_files/SEES280_Lecture-35614.xlsx
@@ -792,7 +792,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45925.3110492245</x:v>
+        <x:v>45927.4687373843</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>

--- a/downloaded_files/SEES280_Lecture-35614.xlsx
+++ b/downloaded_files/SEES280_Lecture-35614.xlsx
@@ -792,7 +792,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4687373843</x:v>
+        <x:v>45928.7044315972</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>

--- a/downloaded_files/SEES280_Lecture-35614.xlsx
+++ b/downloaded_files/SEES280_Lecture-35614.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,6 +136,15 @@
   </x:si>
   <x:si>
     <x:t>Ali mohamed nagy mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مازن السيد ابراهيم عبدالحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mazen Elsayed Ibrahim Abdelhalim</x:t>
   </x:si>
   <x:si>
     <x:t>1230096</x:t>
@@ -305,7 +314,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -605,7 +614,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1078,7 +1087,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45929.8496246528</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4174353357</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45920.5497586806</x:v>
+        <x:v>45907.4174353357</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9877303241</x:v>
+        <x:v>45920.5497586806</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45911.9939570602</x:v>
+        <x:v>45915.9877303241</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6679454514</x:v>
+        <x:v>45911.9939570602</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1255,6 +1264,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45907.6679454514</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
